--- a/ky/downloads/data-excel/6.3.1.xlsx
+++ b/ky/downloads/data-excel/6.3.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -38,15 +38,6 @@
     <t>(пайыз менен)</t>
   </si>
   <si>
-    <t>6.3.1 Proportion of wastewater safely treated</t>
-  </si>
-  <si>
-    <t>6.3.1 Доля безопасно очищаемых сточных вод</t>
-  </si>
-  <si>
-    <t>6.3.1 Коопсуз тазаланган агып чыкма суулардын үлүшү</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (в процентах)</t>
   </si>
   <si>
@@ -144,6 +135,15 @@
   </si>
   <si>
     <t>Osh city</t>
+  </si>
+  <si>
+    <t>6.3.1 Proportion of domestic and industrial wastewater flows safely treated</t>
+  </si>
+  <si>
+    <t>6.3.1 Доля безопасно очищаемых хозяйственно-бытовых и промышленных сточных вод</t>
+  </si>
+  <si>
+    <t>6.3.1 Коопсуз тазаланган тиричилик жана өндүрүштүк агып чыкма суулардын үлүшү</t>
   </si>
 </sst>
 </file>
@@ -359,9 +359,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -432,6 +429,9 @@
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -730,624 +730,656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="34" style="13" customWidth="1"/>
-    <col min="4" max="6" width="9.5703125" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="35.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="34" style="12" customWidth="1"/>
+    <col min="4" max="6" width="9.5703125" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+    <row r="1" spans="1:17" ht="41.25" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:17" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+    <row r="3" spans="1:17" ht="16.5" thickBot="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2010</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>2011</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>2012</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>2013</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>2014</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>2015</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>2016</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>2017</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>2018</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>2019</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>2020</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>2021</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>2022</v>
       </c>
+      <c r="Q4" s="4">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:17" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9">
+        <v>89.9</v>
+      </c>
+      <c r="E5" s="9">
+        <v>94.5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>94.4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>91</v>
+      </c>
+      <c r="H5" s="10">
+        <v>94.4</v>
+      </c>
+      <c r="I5" s="10">
+        <v>94.5</v>
+      </c>
+      <c r="J5" s="10">
+        <v>93.5</v>
+      </c>
+      <c r="K5" s="10">
+        <v>93.9</v>
+      </c>
+      <c r="L5" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="M5" s="10">
+        <v>95</v>
+      </c>
+      <c r="N5" s="10">
+        <v>95.9</v>
+      </c>
+      <c r="O5" s="10">
+        <v>97</v>
+      </c>
+      <c r="P5" s="10">
+        <v>96.969944810665083</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>96.969944810665083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10">
-        <v>89.9</v>
-      </c>
-      <c r="E5" s="10">
-        <v>94.5</v>
-      </c>
-      <c r="F5" s="10">
-        <v>94.4</v>
-      </c>
-      <c r="G5" s="11">
-        <v>91</v>
-      </c>
-      <c r="H5" s="11">
-        <v>94.4</v>
-      </c>
-      <c r="I5" s="11">
-        <v>94.5</v>
-      </c>
-      <c r="J5" s="11">
-        <v>93.5</v>
-      </c>
-      <c r="K5" s="11">
-        <v>93.9</v>
-      </c>
-      <c r="L5" s="11">
-        <v>95.1</v>
-      </c>
-      <c r="M5" s="11">
-        <v>95</v>
-      </c>
-      <c r="N5" s="11">
-        <v>95.9</v>
-      </c>
-      <c r="O5" s="11">
-        <v>97</v>
-      </c>
-      <c r="P5" s="11">
-        <v>96.969944810665083</v>
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="18">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="H6" s="18">
+        <v>91.1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>91.1</v>
+      </c>
+      <c r="J6" s="18">
+        <v>96.2</v>
+      </c>
+      <c r="K6" s="18">
+        <v>96.2</v>
+      </c>
+      <c r="L6" s="18">
+        <v>96.2</v>
+      </c>
+      <c r="M6" s="18">
+        <v>96.2</v>
+      </c>
+      <c r="N6" s="24">
+        <v>96.2</v>
+      </c>
+      <c r="O6" s="24">
+        <v>96.2</v>
+      </c>
+      <c r="P6" s="24">
+        <v>96.173557859042035</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>96.173557859042035</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="19" t="s">
+    <row r="7" spans="1:17">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="C7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="19">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="H6" s="19">
-        <v>91.1</v>
-      </c>
-      <c r="I6" s="19">
-        <v>91.1</v>
-      </c>
-      <c r="J6" s="19">
-        <v>96.2</v>
-      </c>
-      <c r="K6" s="19">
-        <v>96.2</v>
-      </c>
-      <c r="L6" s="19">
-        <v>96.2</v>
-      </c>
-      <c r="M6" s="19">
-        <v>96.2</v>
-      </c>
-      <c r="N6" s="25">
-        <v>96.2</v>
-      </c>
-      <c r="O6" s="25">
-        <v>96.2</v>
-      </c>
-      <c r="P6" s="25">
-        <v>96.173557859042035</v>
+      <c r="D7" s="20">
+        <v>61.2</v>
+      </c>
+      <c r="E7" s="20">
+        <v>63.6</v>
+      </c>
+      <c r="F7" s="20">
+        <v>60.7</v>
+      </c>
+      <c r="G7" s="20">
+        <v>62.7</v>
+      </c>
+      <c r="H7" s="20">
+        <v>53.7</v>
+      </c>
+      <c r="I7" s="20">
+        <v>35.5</v>
+      </c>
+      <c r="J7" s="20">
+        <v>38</v>
+      </c>
+      <c r="K7" s="20">
+        <v>62.3</v>
+      </c>
+      <c r="L7" s="20">
+        <v>62.3</v>
+      </c>
+      <c r="M7" s="20">
+        <v>62.3</v>
+      </c>
+      <c r="N7" s="25">
+        <v>62.3</v>
+      </c>
+      <c r="O7" s="25">
+        <v>62.7</v>
+      </c>
+      <c r="P7" s="25">
+        <v>62.289845326160055</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>62.289845326160055</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="21" t="s">
+    <row r="8" spans="1:17">
+      <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21">
-        <v>61.2</v>
-      </c>
-      <c r="E7" s="21">
-        <v>63.6</v>
-      </c>
-      <c r="F7" s="21">
-        <v>60.7</v>
-      </c>
-      <c r="G7" s="21">
+      <c r="D8" s="20">
+        <v>100</v>
+      </c>
+      <c r="E8" s="20">
+        <v>98.1</v>
+      </c>
+      <c r="F8" s="20">
+        <v>98.1</v>
+      </c>
+      <c r="G8" s="20">
+        <v>100</v>
+      </c>
+      <c r="H8" s="20">
+        <v>100</v>
+      </c>
+      <c r="I8" s="20">
+        <v>101.1</v>
+      </c>
+      <c r="J8" s="20">
+        <v>97.5</v>
+      </c>
+      <c r="K8" s="20">
+        <v>97.3</v>
+      </c>
+      <c r="L8" s="20">
+        <v>99.9</v>
+      </c>
+      <c r="M8" s="20">
+        <v>99.96</v>
+      </c>
+      <c r="N8" s="25">
+        <v>100</v>
+      </c>
+      <c r="O8" s="25">
+        <v>100</v>
+      </c>
+      <c r="P8" s="25">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="20">
+        <v>100</v>
+      </c>
+      <c r="F9" s="20">
+        <v>100</v>
+      </c>
+      <c r="G9" s="20">
+        <v>100</v>
+      </c>
+      <c r="H9" s="20">
+        <v>100</v>
+      </c>
+      <c r="I9" s="20">
+        <v>100</v>
+      </c>
+      <c r="J9" s="20">
+        <v>100</v>
+      </c>
+      <c r="K9" s="20">
+        <v>100</v>
+      </c>
+      <c r="L9" s="20">
+        <v>100</v>
+      </c>
+      <c r="M9" s="20">
+        <v>100</v>
+      </c>
+      <c r="N9" s="25">
+        <v>100</v>
+      </c>
+      <c r="O9" s="25">
+        <v>100</v>
+      </c>
+      <c r="P9" s="25">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <v>21.3</v>
+      </c>
+      <c r="I11" s="20">
+        <v>22.2</v>
+      </c>
+      <c r="J11" s="20">
+        <v>98.5</v>
+      </c>
+      <c r="K11" s="20">
+        <v>95.6</v>
+      </c>
+      <c r="L11" s="20">
+        <v>98.2</v>
+      </c>
+      <c r="M11" s="20">
+        <v>98.2</v>
+      </c>
+      <c r="N11" s="25">
+        <v>100</v>
+      </c>
+      <c r="O11" s="25">
+        <v>100</v>
+      </c>
+      <c r="P11" s="25">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="20">
+        <v>44.2</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>29.8</v>
+      </c>
+      <c r="H12" s="20">
+        <v>74.8</v>
+      </c>
+      <c r="I12" s="20">
+        <v>97.1</v>
+      </c>
+      <c r="J12" s="20">
+        <v>95.4</v>
+      </c>
+      <c r="K12" s="20">
+        <v>59.4</v>
+      </c>
+      <c r="L12" s="20">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="M12" s="20">
+        <v>63</v>
+      </c>
+      <c r="N12" s="25">
         <v>62.7</v>
       </c>
-      <c r="H7" s="21">
-        <v>53.7</v>
-      </c>
-      <c r="I7" s="21">
-        <v>35.5</v>
-      </c>
-      <c r="J7" s="21">
-        <v>38</v>
-      </c>
-      <c r="K7" s="21">
-        <v>62.3</v>
-      </c>
-      <c r="L7" s="21">
-        <v>62.3</v>
-      </c>
-      <c r="M7" s="21">
-        <v>62.3</v>
-      </c>
-      <c r="N7" s="26">
-        <v>62.3</v>
-      </c>
-      <c r="O7" s="26">
-        <v>62.7</v>
-      </c>
-      <c r="P7" s="26">
-        <v>62.289845326160055</v>
+      <c r="O12" s="25">
+        <v>57.9</v>
+      </c>
+      <c r="P12" s="25">
+        <v>58.090784503861151</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>58.090784503861151</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="21">
-        <v>100</v>
-      </c>
-      <c r="E8" s="21">
-        <v>98.1</v>
-      </c>
-      <c r="F8" s="21">
-        <v>98.1</v>
-      </c>
-      <c r="G8" s="21">
-        <v>100</v>
-      </c>
-      <c r="H8" s="21">
-        <v>100</v>
-      </c>
-      <c r="I8" s="21">
-        <v>101.1</v>
-      </c>
-      <c r="J8" s="21">
-        <v>97.5</v>
-      </c>
-      <c r="K8" s="21">
-        <v>97.3</v>
-      </c>
-      <c r="L8" s="21">
-        <v>99.9</v>
-      </c>
-      <c r="M8" s="21">
-        <v>99.96</v>
-      </c>
-      <c r="N8" s="26">
-        <v>100</v>
-      </c>
-      <c r="O8" s="26">
-        <v>100</v>
-      </c>
-      <c r="P8" s="26">
+    <row r="13" spans="1:17">
+      <c r="A13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="20">
+        <v>99.1</v>
+      </c>
+      <c r="E13" s="20">
+        <v>100</v>
+      </c>
+      <c r="F13" s="20">
+        <v>100</v>
+      </c>
+      <c r="G13" s="20">
+        <v>100</v>
+      </c>
+      <c r="H13" s="20">
+        <v>100</v>
+      </c>
+      <c r="I13" s="20">
+        <v>100</v>
+      </c>
+      <c r="J13" s="20">
+        <v>100</v>
+      </c>
+      <c r="K13" s="20">
+        <v>100</v>
+      </c>
+      <c r="L13" s="20">
+        <v>100</v>
+      </c>
+      <c r="M13" s="20">
+        <v>100</v>
+      </c>
+      <c r="N13" s="25">
+        <v>100</v>
+      </c>
+      <c r="O13" s="25">
+        <v>100</v>
+      </c>
+      <c r="P13" s="25">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="21">
-        <v>100</v>
-      </c>
-      <c r="F9" s="21">
-        <v>100</v>
-      </c>
-      <c r="G9" s="21">
-        <v>100</v>
-      </c>
-      <c r="H9" s="21">
-        <v>100</v>
-      </c>
-      <c r="I9" s="21">
-        <v>100</v>
-      </c>
-      <c r="J9" s="21">
-        <v>100</v>
-      </c>
-      <c r="K9" s="21">
-        <v>100</v>
-      </c>
-      <c r="L9" s="21">
-        <v>100</v>
-      </c>
-      <c r="M9" s="21">
-        <v>100</v>
-      </c>
-      <c r="N9" s="26">
-        <v>100</v>
-      </c>
-      <c r="O9" s="26">
-        <v>100</v>
-      </c>
-      <c r="P9" s="26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21">
-        <v>21.3</v>
-      </c>
-      <c r="I11" s="21">
-        <v>22.2</v>
-      </c>
-      <c r="J11" s="21">
-        <v>98.5</v>
-      </c>
-      <c r="K11" s="21">
-        <v>95.6</v>
-      </c>
-      <c r="L11" s="21">
-        <v>98.2</v>
-      </c>
-      <c r="M11" s="21">
-        <v>98.2</v>
-      </c>
-      <c r="N11" s="26">
-        <v>100</v>
-      </c>
-      <c r="O11" s="26">
-        <v>100</v>
-      </c>
-      <c r="P11" s="26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="21">
-        <v>44.2</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>29.8</v>
-      </c>
-      <c r="H12" s="21">
-        <v>74.8</v>
-      </c>
-      <c r="I12" s="21">
-        <v>97.1</v>
-      </c>
-      <c r="J12" s="21">
-        <v>95.4</v>
-      </c>
-      <c r="K12" s="21">
-        <v>59.4</v>
-      </c>
-      <c r="L12" s="21">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="M12" s="21">
-        <v>63</v>
-      </c>
-      <c r="N12" s="26">
-        <v>62.7</v>
-      </c>
-      <c r="O12" s="26">
-        <v>57.9</v>
-      </c>
-      <c r="P12" s="26">
-        <v>58.090784503861151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="21" t="s">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="21">
-        <v>99.1</v>
-      </c>
-      <c r="E13" s="21">
-        <v>100</v>
-      </c>
-      <c r="F13" s="21">
-        <v>100</v>
-      </c>
-      <c r="G13" s="21">
-        <v>100</v>
-      </c>
-      <c r="H13" s="21">
-        <v>100</v>
-      </c>
-      <c r="I13" s="21">
-        <v>100</v>
-      </c>
-      <c r="J13" s="21">
-        <v>100</v>
-      </c>
-      <c r="K13" s="21">
-        <v>100</v>
-      </c>
-      <c r="L13" s="21">
-        <v>100</v>
-      </c>
-      <c r="M13" s="21">
-        <v>100</v>
-      </c>
-      <c r="N13" s="26">
-        <v>100</v>
-      </c>
-      <c r="O13" s="26">
-        <v>100</v>
-      </c>
-      <c r="P13" s="26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="23">
-        <v>100</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="28">
+      <c r="D14" s="22">
+        <v>100</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="27">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="27">
         <v>100</v>
       </c>
     </row>
